--- a/storage/templates/properties_template.xlsx
+++ b/storage/templates/properties_template.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Properties Import Template" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Properties" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R2"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,166 +434,410 @@
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>property_no</t>
+          <t>project_code</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>project_code</t>
+          <t>owner_name</t>
         </is>
       </c>
       <c r="E1" t="inlineStr">
         <is>
-          <t>owner_name</t>
+          <t>property_type_name</t>
         </is>
       </c>
       <c r="F1" t="inlineStr">
         <is>
-          <t>property_type_name</t>
+          <t>status_name</t>
         </is>
       </c>
       <c r="G1" t="inlineStr">
         <is>
-          <t>property_class_name</t>
+          <t>city_name</t>
         </is>
       </c>
       <c r="H1" t="inlineStr">
         <is>
-          <t>status_name</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>city_name</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
           <t>neighborhood_name</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>diagram_number</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>instrument_no</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>license_no</t>
-        </is>
-      </c>
-      <c r="N1" t="inlineStr">
-        <is>
-          <t>lot_no</t>
-        </is>
-      </c>
-      <c r="O1" t="inlineStr">
-        <is>
-          <t>total_square_meter</t>
-        </is>
-      </c>
-      <c r="P1" t="inlineStr">
-        <is>
-          <t>total_units</t>
-        </is>
-      </c>
-      <c r="Q1" t="inlineStr">
-        <is>
-          <t>count_available</t>
-        </is>
-      </c>
-      <c r="R1" t="inlineStr">
-        <is>
-          <t>notes</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>PROP-002</t>
+          <t>PROP-11</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>770e8400-e29b-41d4-a716-446655440222</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>2</v>
+          <t>110e8400-e29b-41d4-a716-44665544101</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>PRJ-001</t>
+        </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>Alramz</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Residential</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Available</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>Riyadh</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>Sample Neighborhood</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>PROP-12</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>120e8400-e29b-41d4-a716-44665544102</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
           <t>PRJ-001</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="D3" t="inlineStr">
         <is>
           <t>Alramz</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>Residential</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>Apartment</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>Available</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>Riyadh</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>Al Yasmin</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>D-2024-002</t>
-        </is>
-      </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>INS-99012</t>
-        </is>
-      </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>LIC-2024-889</t>
-        </is>
-      </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>LOT-18</t>
-        </is>
-      </c>
-      <c r="O2" t="n">
-        <v>4200.5</v>
-      </c>
-      <c r="P2" t="n">
-        <v>30</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>30</v>
-      </c>
-      <c r="R2" t="inlineStr">
-        <is>
-          <t>Residential property owned by Alramz within Al Noor Residence project</t>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Sample Neighborhood</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>PROP-13</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>130e8400-e29b-41d4-a716-44665544103</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>PRJ-001</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Alramz</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Residential</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Available</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Riyadh</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Sample Neighborhood</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>PROP-21</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>210e8400-e29b-41d4-a716-44665544201</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>PRJ-002</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Alramz</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Residential</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Available</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Jeddah</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Sample Neighborhood</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>PROP-22</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>220e8400-e29b-41d4-a716-44665544202</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>PRJ-002</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Alramz</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Residential</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Available</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Jeddah</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Sample Neighborhood</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>PROP-23</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>230e8400-e29b-41d4-a716-44665544203</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>PRJ-002</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Alramz</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Residential</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Available</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Jeddah</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Sample Neighborhood</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>PROP-31</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>310e8400-e29b-41d4-a716-44665544301</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>PRJ-003</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Alramz</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Residential</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Available</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Dammam</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Sample Neighborhood</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>PROP-32</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>320e8400-e29b-41d4-a716-44665544302</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>PRJ-003</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Alramz</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Residential</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Available</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Dammam</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Sample Neighborhood</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>PROP-33</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>330e8400-e29b-41d4-a716-44665544303</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>PRJ-003</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Alramz</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Residential</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Available</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Dammam</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Sample Neighborhood</t>
         </is>
       </c>
     </row>

--- a/storage/templates/properties_template.xlsx
+++ b/storage/templates/properties_template.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Properties" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Properties Full Import Template" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:Q10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -429,7 +429,7 @@
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>uuid</t>
+          <t>property_no</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
@@ -449,17 +449,62 @@
       </c>
       <c r="F1" t="inlineStr">
         <is>
+          <t>property_class_name</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
           <t>status_name</t>
         </is>
       </c>
-      <c r="G1" t="inlineStr">
+      <c r="H1" t="inlineStr">
         <is>
           <t>city_name</t>
         </is>
       </c>
-      <c r="H1" t="inlineStr">
+      <c r="I1" t="inlineStr">
         <is>
           <t>neighborhood_name</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>diagram_number</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>instrument_no</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>license_no</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>lot_no</t>
+        </is>
+      </c>
+      <c r="N1" t="inlineStr">
+        <is>
+          <t>total_square_meter</t>
+        </is>
+      </c>
+      <c r="O1" t="inlineStr">
+        <is>
+          <t>total_units</t>
+        </is>
+      </c>
+      <c r="P1" t="inlineStr">
+        <is>
+          <t>count_available</t>
+        </is>
+      </c>
+      <c r="Q1" t="inlineStr">
+        <is>
+          <t>notes</t>
         </is>
       </c>
     </row>
@@ -469,10 +514,8 @@
           <t>PROP-11</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>110e8400-e29b-41d4-a716-44665544101</t>
-        </is>
+      <c r="B2" t="n">
+        <v>1</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -491,17 +534,56 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
+          <t>Apartment</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
           <t>Available</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>Riyadh</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>Sample Neighborhood</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>D-0001</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>INS-0001</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>LIC-0001</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>LOT-01</t>
+        </is>
+      </c>
+      <c r="N2" t="n">
+        <v>3150</v>
+      </c>
+      <c r="O2" t="n">
+        <v>11</v>
+      </c>
+      <c r="P2" t="n">
+        <v>11</v>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>Property 1 under PRJ-001</t>
         </is>
       </c>
     </row>
@@ -511,10 +593,8 @@
           <t>PROP-12</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>120e8400-e29b-41d4-a716-44665544102</t>
-        </is>
+      <c r="B3" t="n">
+        <v>2</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -533,17 +613,56 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
+          <t>Villa</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
           <t>Available</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>Riyadh</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="I3" t="inlineStr">
         <is>
           <t>Sample Neighborhood</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>D-0002</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>INS-0002</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>LIC-0002</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>LOT-02</t>
+        </is>
+      </c>
+      <c r="N3" t="n">
+        <v>3300</v>
+      </c>
+      <c r="O3" t="n">
+        <v>12</v>
+      </c>
+      <c r="P3" t="n">
+        <v>12</v>
+      </c>
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>Property 2 under PRJ-001</t>
         </is>
       </c>
     </row>
@@ -553,10 +672,8 @@
           <t>PROP-13</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>130e8400-e29b-41d4-a716-44665544103</t>
-        </is>
+      <c r="B4" t="n">
+        <v>3</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -570,22 +687,61 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Residential</t>
+          <t>Commercial</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
+          <t>Office</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
           <t>Available</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t>Riyadh</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
+      <c r="I4" t="inlineStr">
         <is>
           <t>Sample Neighborhood</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>D-0003</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>INS-0003</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>LIC-0003</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>LOT-03</t>
+        </is>
+      </c>
+      <c r="N4" t="n">
+        <v>3450</v>
+      </c>
+      <c r="O4" t="n">
+        <v>13</v>
+      </c>
+      <c r="P4" t="n">
+        <v>13</v>
+      </c>
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>Property 3 under PRJ-001</t>
         </is>
       </c>
     </row>
@@ -595,10 +751,8 @@
           <t>PROP-21</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>210e8400-e29b-41d4-a716-44665544201</t>
-        </is>
+      <c r="B5" t="n">
+        <v>4</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -617,17 +771,56 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
+          <t>Apartment</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
           <t>Available</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="H5" t="inlineStr">
         <is>
           <t>Jeddah</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
+      <c r="I5" t="inlineStr">
         <is>
           <t>Sample Neighborhood</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>D-0004</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>INS-0004</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>LIC-0004</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>LOT-04</t>
+        </is>
+      </c>
+      <c r="N5" t="n">
+        <v>3600</v>
+      </c>
+      <c r="O5" t="n">
+        <v>14</v>
+      </c>
+      <c r="P5" t="n">
+        <v>14</v>
+      </c>
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>Property 4 under PRJ-002</t>
         </is>
       </c>
     </row>
@@ -637,10 +830,8 @@
           <t>PROP-22</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>220e8400-e29b-41d4-a716-44665544202</t>
-        </is>
+      <c r="B6" t="n">
+        <v>5</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -659,17 +850,56 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
+          <t>Villa</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
           <t>Available</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="H6" t="inlineStr">
         <is>
           <t>Jeddah</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
+      <c r="I6" t="inlineStr">
         <is>
           <t>Sample Neighborhood</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>D-0005</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>INS-0005</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>LIC-0005</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>LOT-05</t>
+        </is>
+      </c>
+      <c r="N6" t="n">
+        <v>3750</v>
+      </c>
+      <c r="O6" t="n">
+        <v>15</v>
+      </c>
+      <c r="P6" t="n">
+        <v>15</v>
+      </c>
+      <c r="Q6" t="inlineStr">
+        <is>
+          <t>Property 5 under PRJ-002</t>
         </is>
       </c>
     </row>
@@ -679,10 +909,8 @@
           <t>PROP-23</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>230e8400-e29b-41d4-a716-44665544203</t>
-        </is>
+      <c r="B7" t="n">
+        <v>6</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -696,22 +924,61 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Residential</t>
+          <t>Commercial</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
+          <t>Office</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
           <t>Available</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="H7" t="inlineStr">
         <is>
           <t>Jeddah</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
+      <c r="I7" t="inlineStr">
         <is>
           <t>Sample Neighborhood</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>D-0006</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>INS-0006</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>LIC-0006</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>LOT-06</t>
+        </is>
+      </c>
+      <c r="N7" t="n">
+        <v>3900</v>
+      </c>
+      <c r="O7" t="n">
+        <v>16</v>
+      </c>
+      <c r="P7" t="n">
+        <v>16</v>
+      </c>
+      <c r="Q7" t="inlineStr">
+        <is>
+          <t>Property 6 under PRJ-002</t>
         </is>
       </c>
     </row>
@@ -721,10 +988,8 @@
           <t>PROP-31</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>310e8400-e29b-41d4-a716-44665544301</t>
-        </is>
+      <c r="B8" t="n">
+        <v>7</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -743,17 +1008,56 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
+          <t>Apartment</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
           <t>Available</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
+      <c r="H8" t="inlineStr">
         <is>
           <t>Dammam</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
+      <c r="I8" t="inlineStr">
         <is>
           <t>Sample Neighborhood</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>D-0007</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>INS-0007</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>LIC-0007</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>LOT-07</t>
+        </is>
+      </c>
+      <c r="N8" t="n">
+        <v>4050</v>
+      </c>
+      <c r="O8" t="n">
+        <v>17</v>
+      </c>
+      <c r="P8" t="n">
+        <v>17</v>
+      </c>
+      <c r="Q8" t="inlineStr">
+        <is>
+          <t>Property 7 under PRJ-003</t>
         </is>
       </c>
     </row>
@@ -763,10 +1067,8 @@
           <t>PROP-32</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>320e8400-e29b-41d4-a716-44665544302</t>
-        </is>
+      <c r="B9" t="n">
+        <v>8</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -785,17 +1087,56 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
+          <t>Villa</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
           <t>Available</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
+      <c r="H9" t="inlineStr">
         <is>
           <t>Dammam</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
+      <c r="I9" t="inlineStr">
         <is>
           <t>Sample Neighborhood</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>D-0008</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>INS-0008</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>LIC-0008</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>LOT-08</t>
+        </is>
+      </c>
+      <c r="N9" t="n">
+        <v>4200</v>
+      </c>
+      <c r="O9" t="n">
+        <v>18</v>
+      </c>
+      <c r="P9" t="n">
+        <v>18</v>
+      </c>
+      <c r="Q9" t="inlineStr">
+        <is>
+          <t>Property 8 under PRJ-003</t>
         </is>
       </c>
     </row>
@@ -805,10 +1146,8 @@
           <t>PROP-33</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>330e8400-e29b-41d4-a716-44665544303</t>
-        </is>
+      <c r="B10" t="n">
+        <v>9</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -822,22 +1161,61 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Residential</t>
+          <t>Commercial</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
+          <t>Office</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
           <t>Available</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
+      <c r="H10" t="inlineStr">
         <is>
           <t>Dammam</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
+      <c r="I10" t="inlineStr">
         <is>
           <t>Sample Neighborhood</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>D-0009</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>INS-0009</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>LIC-0009</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>LOT-09</t>
+        </is>
+      </c>
+      <c r="N10" t="n">
+        <v>4350</v>
+      </c>
+      <c r="O10" t="n">
+        <v>19</v>
+      </c>
+      <c r="P10" t="n">
+        <v>19</v>
+      </c>
+      <c r="Q10" t="inlineStr">
+        <is>
+          <t>Property 9 under PRJ-003</t>
         </is>
       </c>
     </row>
